--- a/Training/BiLSTM_LTC_result3.xlsx
+++ b/Training/BiLSTM_LTC_result3.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>5.765675830600054</v>
+        <v>4.858104196035002</v>
       </c>
       <c r="F1" t="n">
-        <v>5.625470373587929</v>
+        <v>4.695753565567633</v>
       </c>
       <c r="G1" t="n">
-        <v>9.863023476717213</v>
+        <v>8.254657169552935</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>7.898502996876199</v>
+        <v>4.92489805416622</v>
       </c>
       <c r="F2" t="n">
-        <v>7.77917211855432</v>
+        <v>4.789907035696355</v>
       </c>
       <c r="G2" t="n">
-        <v>13.59338951296938</v>
+        <v>8.39828406802458</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>7.169222910135811</v>
+        <v>6.835549015906014</v>
       </c>
       <c r="F3" t="n">
-        <v>7.051056443858444</v>
+        <v>6.69311135484975</v>
       </c>
       <c r="G3" t="n">
-        <v>12.32410454645133</v>
+        <v>11.7263721491986</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>3.626521739587441</v>
+        <v>3.750210716258738</v>
       </c>
       <c r="F4" t="n">
-        <v>3.486000663236966</v>
+        <v>3.629806651945092</v>
       </c>
       <c r="G4" t="n">
-        <v>6.155479472080878</v>
+        <v>6.37535097166895</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7694292834004072</v>
+        <v>0.9706092892165131</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5390180338952091</v>
+        <v>0.7388715236510652</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8740281794024444</v>
+        <v>1.189854578699861</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>3.261464122326554</v>
+        <v>0.9129324811803226</v>
       </c>
       <c r="F6" t="n">
-        <v>3.101295179530136</v>
+        <v>0.6722850469293833</v>
       </c>
       <c r="G6" t="n">
-        <v>5.502189085075137</v>
+        <v>1.078530205957412</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>2.02458981736238</v>
+        <v>2.009342654725692</v>
       </c>
       <c r="F7" t="n">
-        <v>1.933255643699862</v>
+        <v>1.894768391538079</v>
       </c>
       <c r="G7" t="n">
-        <v>3.368125506701622</v>
+        <v>3.340627123346719</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>2.312031070199523</v>
+        <v>0.7778471335453576</v>
       </c>
       <c r="F8" t="n">
-        <v>2.2306019687561</v>
+        <v>0.5786797799863507</v>
       </c>
       <c r="G8" t="n">
-        <v>3.882174977363675</v>
+        <v>0.9447193658356792</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>2.151008525934353</v>
+        <v>0.7360587076011765</v>
       </c>
       <c r="F9" t="n">
-        <v>2.025953360316621</v>
+        <v>0.5256032703757058</v>
       </c>
       <c r="G9" t="n">
-        <v>3.584270208109029</v>
+        <v>0.8547871542781851</v>
       </c>
     </row>
   </sheetData>
